--- a/functional_tests/ZBIO-5136/ZBIO-5136.xlsx
+++ b/functional_tests/ZBIO-5136/ZBIO-5136.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Test Scenarios" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>scenario</t>
   </si>
@@ -92,7 +92,7 @@
 3. Check the system logs or a dedicated call-log table in the database for an entry corresponding to the test user.</t>
   </si>
   <si>
-    <t>A log entry should be created indicating that an automated call for payment collection was successfully triggered for the user's account and phone number.</t>
+    <t>A log entry should be created indicating that an automated call for payment collection was successfully triggered. This log must not contain the full credit card number; if referenced, it should be masked to show only the last 4 digits.</t>
   </si>
   <si>
     <t>&lt;Ensure No Call is Triggered for a Fully Paid Account-To ensure that no collection call is triggered for an account that was paid in full, even after the due date has passed.&gt;</t>
@@ -259,6 +259,27 @@
   </si>
   <si>
     <t>All communication must be over HTTPS. No sensitive payment details should be stored or logged insecurely. The application must properly sanitize all inputs to prevent injection attacks.</t>
+  </si>
+  <si>
+    <t>&lt;Verify Masking of Credit Card Number in Collection Documentation-To ensure that any logs or documentation generated during the automated payment collection process do not expose the full credit card number, in compliance with security policies.&gt;</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>This security test verifies that when the system logs an activity for the collection process (e.g., a triggered call), the associated credit card number is properly masked.</t>
+  </si>
+  <si>
+    <t>A user account with a past-due balance exists. The system's collection process is about to be triggered. Access to system logs is available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Trigger the daily batch process that checks for past-due accounts.
+2. Access the system logs or a dedicated call-log table in the database.
+3. Locate the log entry corresponding to the test user's collection activity.
+4. Inspect the log entry for any mention of the user's credit card number.</t>
+  </si>
+  <si>
+    <t>The log entry must not contain the full credit card number in plain text. If the card number is referenced, it must be masked to show only the last 4 digits (e.g., '************1234').</t>
   </si>
 </sst>
 </file>
@@ -635,12 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="6" width="50" customWidth="1"/>
+    <col min="1" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,6 +902,26 @@
         <v>71</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/functional_tests/ZBIO-5136/ZBIO-5136.xlsx
+++ b/functional_tests/ZBIO-5136/ZBIO-5136.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>scenario</t>
   </si>
@@ -259,27 +259,6 @@
   </si>
   <si>
     <t>All communication must be over HTTPS. No sensitive payment details should be stored or logged insecurely. The application must properly sanitize all inputs to prevent injection attacks.</t>
-  </si>
-  <si>
-    <t>&lt;Verify Masking of Credit Card Number in Collection Documentation-To ensure that any logs or documentation generated during the automated payment collection process do not expose the full credit card number, in compliance with security policies.&gt;</t>
-  </si>
-  <si>
-    <t>TC-012</t>
-  </si>
-  <si>
-    <t>This security test verifies that when the system logs an activity for the collection process (e.g., a triggered call), the associated credit card number is properly masked.</t>
-  </si>
-  <si>
-    <t>A user account with a past-due balance exists. The system's collection process is about to be triggered. Access to system logs is available.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Trigger the daily batch process that checks for past-due accounts.
-2. Access the system logs or a dedicated call-log table in the database.
-3. Locate the log entry corresponding to the test user's collection activity.
-4. Inspect the log entry for any mention of the user's credit card number.</t>
-  </si>
-  <si>
-    <t>The log entry must not contain the full credit card number in plain text. If the card number is referenced, it must be masked to show only the last 4 digits (e.g., '************1234').</t>
   </si>
 </sst>
 </file>
@@ -656,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="6" width="50" customWidth="1"/>
@@ -902,26 +881,6 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
